--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Jag1-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Jag1-Notch1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.2630565</v>
+        <v>19.9887275</v>
       </c>
       <c r="H2">
-        <v>30.526113</v>
+        <v>39.977455</v>
       </c>
       <c r="I2">
-        <v>0.233863797955522</v>
+        <v>0.2607251058521317</v>
       </c>
       <c r="J2">
-        <v>0.1906936114921843</v>
+        <v>0.2185266677421691</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>67.073376</v>
+        <v>73.870127</v>
       </c>
       <c r="N2">
-        <v>134.146752</v>
+        <v>147.740254</v>
       </c>
       <c r="O2">
-        <v>0.3886152607163267</v>
+        <v>0.5038991021785622</v>
       </c>
       <c r="P2">
-        <v>0.3201976973989085</v>
+        <v>0.4272874344759938</v>
       </c>
       <c r="Q2">
-        <v>1023.744727533744</v>
+        <v>1476.569838993392</v>
       </c>
       <c r="R2">
-        <v>4094.978910134976</v>
+        <v>5906.279355973569</v>
       </c>
       <c r="S2">
-        <v>0.09088304081459553</v>
+        <v>0.1313791467542997</v>
       </c>
       <c r="T2">
-        <v>0.06105965530847943</v>
+        <v>0.09337369922413934</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.2630565</v>
+        <v>19.9887275</v>
       </c>
       <c r="H3">
-        <v>30.526113</v>
+        <v>39.977455</v>
       </c>
       <c r="I3">
-        <v>0.233863797955522</v>
+        <v>0.2607251058521317</v>
       </c>
       <c r="J3">
-        <v>0.1906936114921843</v>
+        <v>0.2185266677421691</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>12.657032</v>
       </c>
       <c r="O3">
-        <v>0.02444445215030819</v>
+        <v>0.0287796403411505</v>
       </c>
       <c r="P3">
-        <v>0.03021133528677833</v>
+        <v>0.0366060744105703</v>
       </c>
       <c r="Q3">
-        <v>64.394998179436</v>
+        <v>84.33265453559333</v>
       </c>
       <c r="R3">
-        <v>386.369989076616</v>
+        <v>505.99592721356</v>
       </c>
       <c r="S3">
-        <v>0.0057166724188131</v>
+        <v>0.007503574774332742</v>
       </c>
       <c r="T3">
-        <v>0.005761108633837024</v>
+        <v>0.007999403460063814</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.2630565</v>
+        <v>19.9887275</v>
       </c>
       <c r="H4">
-        <v>30.526113</v>
+        <v>39.977455</v>
       </c>
       <c r="I4">
-        <v>0.233863797955522</v>
+        <v>0.2607251058521317</v>
       </c>
       <c r="J4">
-        <v>0.1906936114921843</v>
+        <v>0.2185266677421691</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.54988666666667</v>
+        <v>14.18890566666667</v>
       </c>
       <c r="N4">
-        <v>37.64966</v>
+        <v>42.566717</v>
       </c>
       <c r="O4">
-        <v>0.07271256897710082</v>
+        <v>0.09678847345598375</v>
       </c>
       <c r="P4">
-        <v>0.0898667635266472</v>
+        <v>0.1231094627805071</v>
       </c>
       <c r="Q4">
-        <v>191.54962926193</v>
+        <v>283.6181688942059</v>
       </c>
       <c r="R4">
-        <v>1149.29777557158</v>
+        <v>1701.709013365235</v>
       </c>
       <c r="S4">
-        <v>0.01700483754008766</v>
+        <v>0.0252351849870776</v>
       </c>
       <c r="T4">
-        <v>0.01713701769001046</v>
+        <v>0.02690270066895282</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.2630565</v>
+        <v>19.9887275</v>
       </c>
       <c r="H5">
-        <v>30.526113</v>
+        <v>39.977455</v>
       </c>
       <c r="I5">
-        <v>0.233863797955522</v>
+        <v>0.2607251058521317</v>
       </c>
       <c r="J5">
-        <v>0.1906936114921843</v>
+        <v>0.2185266677421691</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.7643625</v>
+        <v>20.1578925</v>
       </c>
       <c r="N5">
-        <v>63.528725</v>
+        <v>40.31578500000001</v>
       </c>
       <c r="O5">
-        <v>0.1840389846252172</v>
+        <v>0.1375054348094186</v>
       </c>
       <c r="P5">
-        <v>0.1516380468435678</v>
+        <v>0.1165994228054851</v>
       </c>
       <c r="Q5">
-        <v>484.8212595239813</v>
+        <v>402.9306201567938</v>
       </c>
       <c r="R5">
-        <v>1939.285038095925</v>
+        <v>1611.722480627175</v>
       </c>
       <c r="S5">
-        <v>0.04304005591633121</v>
+        <v>0.03585111904592906</v>
       </c>
       <c r="T5">
-        <v>0.02891640679222095</v>
+        <v>0.02548008332634293</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.2630565</v>
+        <v>19.9887275</v>
       </c>
       <c r="H6">
-        <v>30.526113</v>
+        <v>39.977455</v>
       </c>
       <c r="I6">
-        <v>0.233863797955522</v>
+        <v>0.2607251058521317</v>
       </c>
       <c r="J6">
-        <v>0.1906936114921843</v>
+        <v>0.2185266677421691</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.80271133333334</v>
+        <v>25.26300833333334</v>
       </c>
       <c r="N6">
-        <v>134.408134</v>
+        <v>75.78902500000001</v>
       </c>
       <c r="O6">
-        <v>0.2595816460111038</v>
+        <v>0.1723295699423422</v>
       </c>
       <c r="P6">
-        <v>0.3208215955797718</v>
+        <v>0.2191934640486469</v>
       </c>
       <c r="Q6">
-        <v>683.8263144338572</v>
+        <v>504.9753894052292</v>
       </c>
       <c r="R6">
-        <v>4102.957886603142</v>
+        <v>3029.852336431375</v>
       </c>
       <c r="S6">
-        <v>0.0607067496157026</v>
+        <v>0.0449306453646695</v>
       </c>
       <c r="T6">
-        <v>0.06117862870579166</v>
+        <v>0.04789961728941374</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.2630565</v>
+        <v>19.9887275</v>
       </c>
       <c r="H7">
-        <v>30.526113</v>
+        <v>39.977455</v>
       </c>
       <c r="I7">
-        <v>0.233863797955522</v>
+        <v>0.2607251058521317</v>
       </c>
       <c r="J7">
-        <v>0.1906936114921843</v>
+        <v>0.2185266677421691</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.18648933333333</v>
+        <v>8.898116</v>
       </c>
       <c r="N7">
-        <v>36.559468</v>
+        <v>26.694348</v>
       </c>
       <c r="O7">
-        <v>0.07060708751994335</v>
+        <v>0.06069777927254273</v>
       </c>
       <c r="P7">
-        <v>0.08726456136432641</v>
+        <v>0.0772041414787968</v>
       </c>
       <c r="Q7">
-        <v>186.003075231314</v>
+        <v>177.86201598739</v>
       </c>
       <c r="R7">
-        <v>1116.018451387884</v>
+        <v>1067.17209592434</v>
       </c>
       <c r="S7">
-        <v>0.01651244164999189</v>
+        <v>0.01582543492582303</v>
       </c>
       <c r="T7">
-        <v>0.01664079436184473</v>
+        <v>0.01687116377325644</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>20.97942</v>
       </c>
       <c r="I8">
-        <v>0.1071503784340102</v>
+        <v>0.09121576982520653</v>
       </c>
       <c r="J8">
-        <v>0.1310563636716984</v>
+        <v>0.1146787043788409</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>67.073376</v>
+        <v>73.870127</v>
       </c>
       <c r="N8">
-        <v>134.146752</v>
+        <v>147.740254</v>
       </c>
       <c r="O8">
-        <v>0.3886152607163267</v>
+        <v>0.5038991021785622</v>
       </c>
       <c r="P8">
-        <v>0.3201976973989085</v>
+        <v>0.4272874344759938</v>
       </c>
       <c r="Q8">
-        <v>469.05350864064</v>
+        <v>516.5841399287799</v>
       </c>
       <c r="R8">
-        <v>2814.32105184384</v>
+        <v>3099.504839572679</v>
       </c>
       <c r="S8">
-        <v>0.04164027225098593</v>
+        <v>0.04596354451944795</v>
       </c>
       <c r="T8">
-        <v>0.04196394587715178</v>
+        <v>0.04900076938306586</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>20.97942</v>
       </c>
       <c r="I9">
-        <v>0.1071503784340102</v>
+        <v>0.09121576982520653</v>
       </c>
       <c r="J9">
-        <v>0.1310563636716984</v>
+        <v>0.1146787043788409</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>12.657032</v>
       </c>
       <c r="O9">
-        <v>0.02444445215030819</v>
+        <v>0.0287796403411505</v>
       </c>
       <c r="P9">
-        <v>0.03021133528677833</v>
+        <v>0.0366060744105703</v>
       </c>
       <c r="Q9">
         <v>29.50413225349333</v>
@@ -1013,10 +1013,10 @@
         <v>265.53719028144</v>
       </c>
       <c r="S9">
-        <v>0.002619232298517576</v>
+        <v>0.002625157049010612</v>
       </c>
       <c r="T9">
-        <v>0.003959387744351634</v>
+        <v>0.004197937185799645</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>20.97942</v>
       </c>
       <c r="I10">
-        <v>0.1071503784340102</v>
+        <v>0.09121576982520653</v>
       </c>
       <c r="J10">
-        <v>0.1310563636716984</v>
+        <v>0.1146787043788409</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.54988666666667</v>
+        <v>14.18890566666667</v>
       </c>
       <c r="N10">
-        <v>37.64966</v>
+        <v>42.566717</v>
       </c>
       <c r="O10">
-        <v>0.07271256897710082</v>
+        <v>0.09678847345598375</v>
       </c>
       <c r="P10">
-        <v>0.0898667635266472</v>
+        <v>0.1231094627805071</v>
       </c>
       <c r="Q10">
-        <v>87.76311444413332</v>
+        <v>99.22500377379333</v>
       </c>
       <c r="R10">
-        <v>789.8680299971999</v>
+        <v>893.02503396414</v>
       </c>
       <c r="S10">
-        <v>0.007791179282805419</v>
+        <v>0.008828635116494126</v>
       </c>
       <c r="T10">
-        <v>0.0117776112427468</v>
+        <v>0.0141180336884437</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>20.97942</v>
       </c>
       <c r="I11">
-        <v>0.1071503784340102</v>
+        <v>0.09121576982520653</v>
       </c>
       <c r="J11">
-        <v>0.1310563636716984</v>
+        <v>0.1146787043788409</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>31.7643625</v>
+        <v>20.1578925</v>
       </c>
       <c r="N11">
-        <v>63.528725</v>
+        <v>40.31578500000001</v>
       </c>
       <c r="O11">
-        <v>0.1840389846252172</v>
+        <v>0.1375054348094186</v>
       </c>
       <c r="P11">
-        <v>0.1516380468435678</v>
+        <v>0.1165994228054851</v>
       </c>
       <c r="Q11">
-        <v>222.13263397325</v>
+        <v>140.96696435745</v>
       </c>
       <c r="R11">
-        <v>1332.7958038395</v>
+        <v>845.8017861447</v>
       </c>
       <c r="S11">
-        <v>0.019719846849203</v>
+        <v>0.01254266409129087</v>
       </c>
       <c r="T11">
-        <v>0.01987313101359665</v>
+        <v>0.01337147073865371</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>20.97942</v>
       </c>
       <c r="I12">
-        <v>0.1071503784340102</v>
+        <v>0.09121576982520653</v>
       </c>
       <c r="J12">
-        <v>0.1310563636716984</v>
+        <v>0.1146787043788409</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>44.80271133333334</v>
+        <v>25.26300833333334</v>
       </c>
       <c r="N12">
-        <v>134.408134</v>
+        <v>75.78902500000001</v>
       </c>
       <c r="O12">
-        <v>0.2595816460111038</v>
+        <v>0.1723295699423422</v>
       </c>
       <c r="P12">
-        <v>0.3208215955797718</v>
+        <v>0.2191934640486469</v>
       </c>
       <c r="Q12">
-        <v>313.3116327335867</v>
+        <v>176.6677540961667</v>
       </c>
       <c r="R12">
-        <v>2819.80469460228</v>
+        <v>1590.0097868655</v>
       </c>
       <c r="S12">
-        <v>0.02781427160461303</v>
+        <v>0.01571917438593752</v>
       </c>
       <c r="T12">
-        <v>0.04204571170403711</v>
+        <v>0.02513682246540887</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>20.97942</v>
       </c>
       <c r="I13">
-        <v>0.1071503784340102</v>
+        <v>0.09121576982520653</v>
       </c>
       <c r="J13">
-        <v>0.1310563636716984</v>
+        <v>0.1146787043788409</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.18648933333333</v>
+        <v>8.898116</v>
       </c>
       <c r="N13">
-        <v>36.559468</v>
+        <v>26.694348</v>
       </c>
       <c r="O13">
-        <v>0.07060708751994335</v>
+        <v>0.06069777927254273</v>
       </c>
       <c r="P13">
-        <v>0.08726456136432641</v>
+        <v>0.0772041414787968</v>
       </c>
       <c r="Q13">
-        <v>85.22182601650665</v>
+        <v>62.22577092424</v>
       </c>
       <c r="R13">
-        <v>766.9964341485598</v>
+        <v>560.0319383181599</v>
       </c>
       <c r="S13">
-        <v>0.007565576147885205</v>
+        <v>0.005536594663025449</v>
       </c>
       <c r="T13">
-        <v>0.0114365760898144</v>
+        <v>0.00885367091746915</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.024555666666666</v>
+        <v>4.517918</v>
       </c>
       <c r="H14">
-        <v>24.073667</v>
+        <v>13.553754</v>
       </c>
       <c r="I14">
-        <v>0.122953948647977</v>
+        <v>0.0589299468303448</v>
       </c>
       <c r="J14">
-        <v>0.1503858189246111</v>
+        <v>0.07408817537327214</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>67.073376</v>
+        <v>73.870127</v>
       </c>
       <c r="N14">
-        <v>134.146752</v>
+        <v>147.740254</v>
       </c>
       <c r="O14">
-        <v>0.3886152607163267</v>
+        <v>0.5038991021785622</v>
       </c>
       <c r="P14">
-        <v>0.3201976973989085</v>
+        <v>0.4272874344759938</v>
       </c>
       <c r="Q14">
-        <v>538.2340394632639</v>
+        <v>333.739176435586</v>
       </c>
       <c r="R14">
-        <v>3229.404236779584</v>
+        <v>2002.435058613516</v>
       </c>
       <c r="S14">
-        <v>0.04778178080993543</v>
+        <v>0.02969474729924115</v>
       </c>
       <c r="T14">
-        <v>0.04815319294110966</v>
+        <v>0.03165694638025295</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.024555666666666</v>
+        <v>4.517918</v>
       </c>
       <c r="H15">
-        <v>24.073667</v>
+        <v>13.553754</v>
       </c>
       <c r="I15">
-        <v>0.122953948647977</v>
+        <v>0.0589299468303448</v>
       </c>
       <c r="J15">
-        <v>0.1503858189246111</v>
+        <v>0.07408817537327214</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>12.657032</v>
       </c>
       <c r="O15">
-        <v>0.02444445215030819</v>
+        <v>0.0287796403411505</v>
       </c>
       <c r="P15">
-        <v>0.03021133528677833</v>
+        <v>0.0366060744105703</v>
       </c>
       <c r="Q15">
-        <v>33.85568595292711</v>
+        <v>19.06114423312533</v>
       </c>
       <c r="R15">
-        <v>304.701173576344</v>
+        <v>171.550298098128</v>
       </c>
       <c r="S15">
-        <v>0.003005541914416925</v>
+        <v>0.001695982675100445</v>
       </c>
       <c r="T15">
-        <v>0.004543356397908159</v>
+        <v>0.002712077260657382</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.024555666666666</v>
+        <v>4.517918</v>
       </c>
       <c r="H16">
-        <v>24.073667</v>
+        <v>13.553754</v>
       </c>
       <c r="I16">
-        <v>0.122953948647977</v>
+        <v>0.0589299468303448</v>
       </c>
       <c r="J16">
-        <v>0.1503858189246111</v>
+        <v>0.07408817537327214</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.54988666666667</v>
+        <v>14.18890566666667</v>
       </c>
       <c r="N16">
-        <v>37.64966</v>
+        <v>42.566717</v>
       </c>
       <c r="O16">
-        <v>0.07271256897710082</v>
+        <v>0.09678847345598375</v>
       </c>
       <c r="P16">
-        <v>0.0898667635266472</v>
+        <v>0.1231094627805071</v>
       </c>
       <c r="Q16">
-        <v>100.7072641670244</v>
+        <v>64.10431231173534</v>
       </c>
       <c r="R16">
-        <v>906.36537750322</v>
+        <v>576.938810805618</v>
       </c>
       <c r="S16">
-        <v>0.008940297472072941</v>
+        <v>0.005703739594551361</v>
       </c>
       <c r="T16">
-        <v>0.01351468682705921</v>
+        <v>0.009120955468591534</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.024555666666666</v>
+        <v>4.517918</v>
       </c>
       <c r="H17">
-        <v>24.073667</v>
+        <v>13.553754</v>
       </c>
       <c r="I17">
-        <v>0.122953948647977</v>
+        <v>0.0589299468303448</v>
       </c>
       <c r="J17">
-        <v>0.1503858189246111</v>
+        <v>0.07408817537327214</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>31.7643625</v>
+        <v>20.1578925</v>
       </c>
       <c r="N17">
-        <v>63.528725</v>
+        <v>40.31578500000001</v>
       </c>
       <c r="O17">
-        <v>0.1840389846252172</v>
+        <v>0.1375054348094186</v>
       </c>
       <c r="P17">
-        <v>0.1516380468435678</v>
+        <v>0.1165994228054851</v>
       </c>
       <c r="Q17">
-        <v>254.8948950974292</v>
+        <v>91.07170536781501</v>
       </c>
       <c r="R17">
-        <v>1529.369370584575</v>
+        <v>546.4302322068901</v>
       </c>
       <c r="S17">
-        <v>0.02262831986483479</v>
+        <v>0.008103187962202484</v>
       </c>
       <c r="T17">
-        <v>0.02280421185469848</v>
+        <v>0.008638638485235085</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.024555666666666</v>
+        <v>4.517918</v>
       </c>
       <c r="H18">
-        <v>24.073667</v>
+        <v>13.553754</v>
       </c>
       <c r="I18">
-        <v>0.122953948647977</v>
+        <v>0.0589299468303448</v>
       </c>
       <c r="J18">
-        <v>0.1503858189246111</v>
+        <v>0.07408817537327214</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>44.80271133333334</v>
+        <v>25.26300833333334</v>
       </c>
       <c r="N18">
-        <v>134.408134</v>
+        <v>75.78902500000001</v>
       </c>
       <c r="O18">
-        <v>0.2595816460111038</v>
+        <v>0.1723295699423422</v>
       </c>
       <c r="P18">
-        <v>0.3208215955797718</v>
+        <v>0.2191934640486469</v>
       </c>
       <c r="Q18">
-        <v>359.5218511119309</v>
+        <v>114.1362000833167</v>
       </c>
       <c r="R18">
-        <v>3235.696660007378</v>
+        <v>1027.22580074985</v>
       </c>
       <c r="S18">
-        <v>0.0319165883736066</v>
+        <v>0.01015537239399841</v>
       </c>
       <c r="T18">
-        <v>0.04824701837996437</v>
+        <v>0.01623964380511117</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.024555666666666</v>
+        <v>4.517918</v>
       </c>
       <c r="H19">
-        <v>24.073667</v>
+        <v>13.553754</v>
       </c>
       <c r="I19">
-        <v>0.122953948647977</v>
+        <v>0.0589299468303448</v>
       </c>
       <c r="J19">
-        <v>0.1503858189246111</v>
+        <v>0.07408817537327214</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>12.18648933333333</v>
+        <v>8.898116</v>
       </c>
       <c r="N19">
-        <v>36.559468</v>
+        <v>26.694348</v>
       </c>
       <c r="O19">
-        <v>0.07060708751994335</v>
+        <v>0.06069777927254273</v>
       </c>
       <c r="P19">
-        <v>0.08726456136432641</v>
+        <v>0.0772041414787968</v>
       </c>
       <c r="Q19">
-        <v>97.79116203657287</v>
+        <v>40.200958442488</v>
       </c>
       <c r="R19">
-        <v>880.1204583291559</v>
+        <v>361.808625982392</v>
       </c>
       <c r="S19">
-        <v>0.008681420213110334</v>
+        <v>0.003576916905250948</v>
       </c>
       <c r="T19">
-        <v>0.0131233525238712</v>
+        <v>0.005719913973424011</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>20.45175</v>
+        <v>27.0681495</v>
       </c>
       <c r="H20">
-        <v>40.9035</v>
+        <v>54.136299</v>
       </c>
       <c r="I20">
-        <v>0.3133660633331761</v>
+        <v>0.3530663041761326</v>
       </c>
       <c r="J20">
-        <v>0.2555201226461606</v>
+        <v>0.2959224148801799</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>67.073376</v>
+        <v>73.870127</v>
       </c>
       <c r="N20">
-        <v>134.146752</v>
+        <v>147.740254</v>
       </c>
       <c r="O20">
-        <v>0.3886152607163267</v>
+        <v>0.5038991021785622</v>
       </c>
       <c r="P20">
-        <v>0.3201976973989085</v>
+        <v>0.4272874344759938</v>
       </c>
       <c r="Q20">
-        <v>1371.767917608</v>
+        <v>1999.527641219986</v>
       </c>
       <c r="R20">
-        <v>5487.071670432</v>
+        <v>7998.110564879946</v>
       </c>
       <c r="S20">
-        <v>0.1217788344018712</v>
+        <v>0.1779097936838563</v>
       </c>
       <c r="T20">
-        <v>0.08181695491038732</v>
+        <v>0.1264439294580927</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>20.45175</v>
+        <v>27.0681495</v>
       </c>
       <c r="H21">
-        <v>40.9035</v>
+        <v>54.136299</v>
       </c>
       <c r="I21">
-        <v>0.3133660633331761</v>
+        <v>0.3530663041761326</v>
       </c>
       <c r="J21">
-        <v>0.2555201226461606</v>
+        <v>0.2959224148801799</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>12.657032</v>
       </c>
       <c r="O21">
-        <v>0.02444445215030819</v>
+        <v>0.0287796403411505</v>
       </c>
       <c r="P21">
-        <v>0.03021133528677833</v>
+        <v>0.0366060744105703</v>
       </c>
       <c r="Q21">
-        <v>86.286151402</v>
+        <v>114.200811467428</v>
       </c>
       <c r="R21">
-        <v>517.7169084120001</v>
+        <v>685.204868804568</v>
       </c>
       <c r="S21">
-        <v>0.007660061740678271</v>
+        <v>0.01016112125076834</v>
       </c>
       <c r="T21">
-        <v>0.00771960409778188</v>
+        <v>0.01083255793885952</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>20.45175</v>
+        <v>27.0681495</v>
       </c>
       <c r="H22">
-        <v>40.9035</v>
+        <v>54.136299</v>
       </c>
       <c r="I22">
-        <v>0.3133660633331761</v>
+        <v>0.3530663041761326</v>
       </c>
       <c r="J22">
-        <v>0.2555201226461606</v>
+        <v>0.2959224148801799</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>12.54988666666667</v>
+        <v>14.18890566666667</v>
       </c>
       <c r="N22">
-        <v>37.64966</v>
+        <v>42.566717</v>
       </c>
       <c r="O22">
-        <v>0.07271256897710082</v>
+        <v>0.09678847345598375</v>
       </c>
       <c r="P22">
-        <v>0.0898667635266472</v>
+        <v>0.1231094627805071</v>
       </c>
       <c r="Q22">
-        <v>256.667144635</v>
+        <v>384.0674198267305</v>
       </c>
       <c r="R22">
-        <v>1540.00286781</v>
+        <v>2304.404518960383</v>
       </c>
       <c r="S22">
-        <v>0.02278565149519611</v>
+        <v>0.03417274860995389</v>
       </c>
       <c r="T22">
-        <v>0.02296276643814241</v>
+        <v>0.0364308495206093</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>20.45175</v>
+        <v>27.0681495</v>
       </c>
       <c r="H23">
-        <v>40.9035</v>
+        <v>54.136299</v>
       </c>
       <c r="I23">
-        <v>0.3133660633331761</v>
+        <v>0.3530663041761326</v>
       </c>
       <c r="J23">
-        <v>0.2555201226461606</v>
+        <v>0.2959224148801799</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>31.7643625</v>
+        <v>20.1578925</v>
       </c>
       <c r="N23">
-        <v>63.528725</v>
+        <v>40.31578500000001</v>
       </c>
       <c r="O23">
-        <v>0.1840389846252172</v>
+        <v>0.1375054348094186</v>
       </c>
       <c r="P23">
-        <v>0.1516380468435678</v>
+        <v>0.1165994228054851</v>
       </c>
       <c r="Q23">
-        <v>649.636800759375</v>
+        <v>545.6368477949288</v>
       </c>
       <c r="R23">
-        <v>2598.5472030375</v>
+        <v>2182.547391179715</v>
       </c>
       <c r="S23">
-        <v>0.05767157211183924</v>
+        <v>0.04854853567229356</v>
       </c>
       <c r="T23">
-        <v>0.03874657232729269</v>
+        <v>0.03450438277023426</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>20.45175</v>
+        <v>27.0681495</v>
       </c>
       <c r="H24">
-        <v>40.9035</v>
+        <v>54.136299</v>
       </c>
       <c r="I24">
-        <v>0.3133660633331761</v>
+        <v>0.3530663041761326</v>
       </c>
       <c r="J24">
-        <v>0.2555201226461606</v>
+        <v>0.2959224148801799</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>44.80271133333334</v>
+        <v>25.26300833333334</v>
       </c>
       <c r="N24">
-        <v>134.408134</v>
+        <v>75.78902500000001</v>
       </c>
       <c r="O24">
-        <v>0.2595816460111038</v>
+        <v>0.1723295699423422</v>
       </c>
       <c r="P24">
-        <v>0.3208215955797718</v>
+        <v>0.2191934640486469</v>
       </c>
       <c r="Q24">
-        <v>916.2938515115002</v>
+        <v>683.8228863864126</v>
       </c>
       <c r="R24">
-        <v>5497.763109069001</v>
+        <v>4102.937318318475</v>
       </c>
       <c r="S24">
-        <v>0.08134407852404565</v>
+        <v>0.0608437643598051</v>
       </c>
       <c r="T24">
-        <v>0.08197637345008024</v>
+        <v>0.06486425920722748</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>20.45175</v>
+        <v>27.0681495</v>
       </c>
       <c r="H25">
-        <v>40.9035</v>
+        <v>54.136299</v>
       </c>
       <c r="I25">
-        <v>0.3133660633331761</v>
+        <v>0.3530663041761326</v>
       </c>
       <c r="J25">
-        <v>0.2555201226461606</v>
+        <v>0.2959224148801799</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>12.18648933333333</v>
+        <v>8.898116</v>
       </c>
       <c r="N25">
-        <v>36.559468</v>
+        <v>26.694348</v>
       </c>
       <c r="O25">
-        <v>0.07060708751994335</v>
+        <v>0.06069777927254273</v>
       </c>
       <c r="P25">
-        <v>0.08726456136432641</v>
+        <v>0.0772041414787968</v>
       </c>
       <c r="Q25">
-        <v>249.235033223</v>
+        <v>240.855534156342</v>
       </c>
       <c r="R25">
-        <v>1495.410199338</v>
+        <v>1445.133204938052</v>
       </c>
       <c r="S25">
-        <v>0.02212586505954568</v>
+        <v>0.02143034059945532</v>
       </c>
       <c r="T25">
-        <v>0.0222978514224761</v>
+        <v>0.02284643598515661</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>12.458139</v>
+        <v>5.535821333333334</v>
       </c>
       <c r="H26">
-        <v>37.374417</v>
+        <v>16.607464</v>
       </c>
       <c r="I26">
-        <v>0.190886255449412</v>
+        <v>0.0722070778698555</v>
       </c>
       <c r="J26">
-        <v>0.2334742898692961</v>
+        <v>0.09078051035434934</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>67.073376</v>
+        <v>73.870127</v>
       </c>
       <c r="N26">
-        <v>134.146752</v>
+        <v>147.740254</v>
       </c>
       <c r="O26">
-        <v>0.3886152607163267</v>
+        <v>0.5038991021785622</v>
       </c>
       <c r="P26">
-        <v>0.3201976973989085</v>
+        <v>0.4272874344759938</v>
       </c>
       <c r="Q26">
-        <v>835.6094414072641</v>
+        <v>408.9318249426427</v>
       </c>
       <c r="R26">
-        <v>5013.656648443583</v>
+        <v>2453.590949655856</v>
       </c>
       <c r="S26">
-        <v>0.07418131192863658</v>
+        <v>0.03638508170955771</v>
       </c>
       <c r="T26">
-        <v>0.0747579300179939</v>
+        <v>0.03878937136973132</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>12.458139</v>
+        <v>5.535821333333334</v>
       </c>
       <c r="H27">
-        <v>37.374417</v>
+        <v>16.607464</v>
       </c>
       <c r="I27">
-        <v>0.190886255449412</v>
+        <v>0.0722070778698555</v>
       </c>
       <c r="J27">
-        <v>0.2334742898692961</v>
+        <v>0.09078051035434934</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>12.657032</v>
       </c>
       <c r="O27">
-        <v>0.02444445215030819</v>
+        <v>0.0287796403411505</v>
       </c>
       <c r="P27">
-        <v>0.03021133528677833</v>
+        <v>0.0366060744105703</v>
       </c>
       <c r="Q27">
-        <v>52.56102132781601</v>
+        <v>23.35568925409422</v>
       </c>
       <c r="R27">
-        <v>473.049191950344</v>
+        <v>210.201203286848</v>
       </c>
       <c r="S27">
-        <v>0.004666109937484658</v>
+        <v>0.002078093731179889</v>
       </c>
       <c r="T27">
-        <v>0.007053570052083776</v>
+        <v>0.00332311811706086</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>12.458139</v>
+        <v>5.535821333333334</v>
       </c>
       <c r="H28">
-        <v>37.374417</v>
+        <v>16.607464</v>
       </c>
       <c r="I28">
-        <v>0.190886255449412</v>
+        <v>0.0722070778698555</v>
       </c>
       <c r="J28">
-        <v>0.2334742898692961</v>
+        <v>0.09078051035434934</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>12.54988666666667</v>
+        <v>14.18890566666667</v>
       </c>
       <c r="N28">
-        <v>37.64966</v>
+        <v>42.566717</v>
       </c>
       <c r="O28">
-        <v>0.07271256897710082</v>
+        <v>0.09678847345598375</v>
       </c>
       <c r="P28">
-        <v>0.0898667635266472</v>
+        <v>0.1231094627805071</v>
       </c>
       <c r="Q28">
-        <v>156.34823252758</v>
+        <v>78.54724668618758</v>
       </c>
       <c r="R28">
-        <v>1407.13409274822</v>
+        <v>706.9252201756881</v>
       </c>
       <c r="S28">
-        <v>0.01387983001614586</v>
+        <v>0.006988812839740661</v>
       </c>
       <c r="T28">
-        <v>0.02098157879723591</v>
+        <v>0.01117593986066421</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>12.458139</v>
+        <v>5.535821333333334</v>
       </c>
       <c r="H29">
-        <v>37.374417</v>
+        <v>16.607464</v>
       </c>
       <c r="I29">
-        <v>0.190886255449412</v>
+        <v>0.0722070778698555</v>
       </c>
       <c r="J29">
-        <v>0.2334742898692961</v>
+        <v>0.09078051035434934</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>31.7643625</v>
+        <v>20.1578925</v>
       </c>
       <c r="N29">
-        <v>63.528725</v>
+        <v>40.31578500000001</v>
       </c>
       <c r="O29">
-        <v>0.1840389846252172</v>
+        <v>0.1375054348094186</v>
       </c>
       <c r="P29">
-        <v>0.1516380468435678</v>
+        <v>0.1165994228054851</v>
       </c>
       <c r="Q29">
-        <v>395.7248432713876</v>
+        <v>111.59049133654</v>
       </c>
       <c r="R29">
-        <v>2374.349059628325</v>
+        <v>669.54294801924</v>
       </c>
       <c r="S29">
-        <v>0.03513051263181961</v>
+        <v>0.00992886563881203</v>
       </c>
       <c r="T29">
-        <v>0.03540358530396904</v>
+        <v>0.01058495510930449</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>12.458139</v>
+        <v>5.535821333333334</v>
       </c>
       <c r="H30">
-        <v>37.374417</v>
+        <v>16.607464</v>
       </c>
       <c r="I30">
-        <v>0.190886255449412</v>
+        <v>0.0722070778698555</v>
       </c>
       <c r="J30">
-        <v>0.2334742898692961</v>
+        <v>0.09078051035434934</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>44.80271133333334</v>
+        <v>25.26300833333334</v>
       </c>
       <c r="N30">
-        <v>134.408134</v>
+        <v>75.78902500000001</v>
       </c>
       <c r="O30">
-        <v>0.2595816460111038</v>
+        <v>0.1723295699423422</v>
       </c>
       <c r="P30">
-        <v>0.3208215955797718</v>
+        <v>0.2191934640486469</v>
       </c>
       <c r="Q30">
-        <v>558.1584053675422</v>
+        <v>139.8515004758445</v>
       </c>
       <c r="R30">
-        <v>5023.425648307879</v>
+        <v>1258.6635042826</v>
       </c>
       <c r="S30">
-        <v>0.04955056839045439</v>
+        <v>0.01244341467610541</v>
       </c>
       <c r="T30">
-        <v>0.0749035942027217</v>
+        <v>0.01989849453267389</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>12.458139</v>
+        <v>5.535821333333334</v>
       </c>
       <c r="H31">
-        <v>37.374417</v>
+        <v>16.607464</v>
       </c>
       <c r="I31">
-        <v>0.190886255449412</v>
+        <v>0.0722070778698555</v>
       </c>
       <c r="J31">
-        <v>0.2334742898692961</v>
+        <v>0.09078051035434934</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>12.18648933333333</v>
+        <v>8.898116</v>
       </c>
       <c r="N31">
-        <v>36.559468</v>
+        <v>26.694348</v>
       </c>
       <c r="O31">
-        <v>0.07060708751994335</v>
+        <v>0.06069777927254273</v>
       </c>
       <c r="P31">
-        <v>0.08726456136432641</v>
+        <v>0.0772041414787968</v>
       </c>
       <c r="Q31">
-        <v>151.820978036684</v>
+        <v>49.25838037927467</v>
       </c>
       <c r="R31">
-        <v>1366.388802330156</v>
+        <v>443.325423413472</v>
       </c>
       <c r="S31">
-        <v>0.01347792254487089</v>
+        <v>0.004382809274459794</v>
       </c>
       <c r="T31">
-        <v>0.02037403149529172</v>
+        <v>0.007008631364914563</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2.074084</v>
+        <v>12.56215366666667</v>
       </c>
       <c r="H32">
-        <v>6.222252</v>
+        <v>37.68646099999999</v>
       </c>
       <c r="I32">
-        <v>0.03177955617990281</v>
+        <v>0.163855795446329</v>
       </c>
       <c r="J32">
-        <v>0.03886979339604969</v>
+        <v>0.2060035272711885</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>67.073376</v>
+        <v>73.870127</v>
       </c>
       <c r="N32">
-        <v>134.146752</v>
+        <v>147.740254</v>
       </c>
       <c r="O32">
-        <v>0.3886152607163267</v>
+        <v>0.5038991021785622</v>
       </c>
       <c r="P32">
-        <v>0.3201976973989085</v>
+        <v>0.4272874344759938</v>
       </c>
       <c r="Q32">
-        <v>139.115815987584</v>
+        <v>927.9678867501822</v>
       </c>
       <c r="R32">
-        <v>834.6948959255039</v>
+        <v>5567.807320501093</v>
       </c>
       <c r="S32">
-        <v>0.01235002051030208</v>
+        <v>0.08256678821215931</v>
       </c>
       <c r="T32">
-        <v>0.01244601834378641</v>
+        <v>0.08802271866071157</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2.074084</v>
+        <v>12.56215366666667</v>
       </c>
       <c r="H33">
-        <v>6.222252</v>
+        <v>37.68646099999999</v>
       </c>
       <c r="I33">
-        <v>0.03177955617990281</v>
+        <v>0.163855795446329</v>
       </c>
       <c r="J33">
-        <v>0.03886979339604969</v>
+        <v>0.2060035272711885</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>12.657032</v>
       </c>
       <c r="O33">
-        <v>0.02444445215030819</v>
+        <v>0.0287796403411505</v>
       </c>
       <c r="P33">
-        <v>0.03021133528677833</v>
+        <v>0.0366060744105703</v>
       </c>
       <c r="Q33">
-        <v>8.750582519562666</v>
+        <v>52.99986031597244</v>
       </c>
       <c r="R33">
-        <v>78.755242676064</v>
+        <v>476.998742843752</v>
       </c>
       <c r="S33">
-        <v>0.0007768338403976653</v>
+        <v>0.004715710860758474</v>
       </c>
       <c r="T33">
-        <v>0.001174308360815859</v>
+        <v>0.007540980448129076</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>2.074084</v>
+        <v>12.56215366666667</v>
       </c>
       <c r="H34">
-        <v>6.222252</v>
+        <v>37.68646099999999</v>
       </c>
       <c r="I34">
-        <v>0.03177955617990281</v>
+        <v>0.163855795446329</v>
       </c>
       <c r="J34">
-        <v>0.03886979339604969</v>
+        <v>0.2060035272711885</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>12.54988666666667</v>
+        <v>14.18890566666667</v>
       </c>
       <c r="N34">
-        <v>37.64966</v>
+        <v>42.566717</v>
       </c>
       <c r="O34">
-        <v>0.07271256897710082</v>
+        <v>0.09678847345598375</v>
       </c>
       <c r="P34">
-        <v>0.0898667635266472</v>
+        <v>0.1231094627805071</v>
       </c>
       <c r="Q34">
-        <v>26.02951913714666</v>
+        <v>178.2432133465041</v>
       </c>
       <c r="R34">
-        <v>234.26567223432</v>
+        <v>1604.188920118537</v>
       </c>
       <c r="S34">
-        <v>0.002310773170792834</v>
+        <v>0.01585935230816611</v>
       </c>
       <c r="T34">
-        <v>0.00349310253145243</v>
+        <v>0.02536098357324557</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2.074084</v>
+        <v>12.56215366666667</v>
       </c>
       <c r="H35">
-        <v>6.222252</v>
+        <v>37.68646099999999</v>
       </c>
       <c r="I35">
-        <v>0.03177955617990281</v>
+        <v>0.163855795446329</v>
       </c>
       <c r="J35">
-        <v>0.03886979339604969</v>
+        <v>0.2060035272711885</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>31.7643625</v>
+        <v>20.1578925</v>
       </c>
       <c r="N35">
-        <v>63.528725</v>
+        <v>40.31578500000001</v>
       </c>
       <c r="O35">
-        <v>0.1840389846252172</v>
+        <v>0.1375054348094186</v>
       </c>
       <c r="P35">
-        <v>0.1516380468435678</v>
+        <v>0.1165994228054851</v>
       </c>
       <c r="Q35">
-        <v>65.88195603145</v>
+        <v>253.2265431811475</v>
       </c>
       <c r="R35">
-        <v>395.2917361887</v>
+        <v>1519.359259086885</v>
       </c>
       <c r="S35">
-        <v>0.005848677251189359</v>
+        <v>0.02253106239889062</v>
       </c>
       <c r="T35">
-        <v>0.005894139551789985</v>
+        <v>0.02401989237571459</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2.074084</v>
+        <v>12.56215366666667</v>
       </c>
       <c r="H36">
-        <v>6.222252</v>
+        <v>37.68646099999999</v>
       </c>
       <c r="I36">
-        <v>0.03177955617990281</v>
+        <v>0.163855795446329</v>
       </c>
       <c r="J36">
-        <v>0.03886979339604969</v>
+        <v>0.2060035272711885</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>44.80271133333334</v>
+        <v>25.26300833333334</v>
       </c>
       <c r="N36">
-        <v>134.408134</v>
+        <v>75.78902500000001</v>
       </c>
       <c r="O36">
-        <v>0.2595816460111038</v>
+        <v>0.1723295699423422</v>
       </c>
       <c r="P36">
-        <v>0.3208215955797718</v>
+        <v>0.2191934640486469</v>
       </c>
       <c r="Q36">
-        <v>92.92458673308535</v>
+        <v>317.3577927656139</v>
       </c>
       <c r="R36">
-        <v>836.3212805977681</v>
+        <v>2856.220134890525</v>
       </c>
       <c r="S36">
-        <v>0.008249389502681517</v>
+        <v>0.02823719876182627</v>
       </c>
       <c r="T36">
-        <v>0.01247026913717674</v>
+        <v>0.04515462674881171</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>2.074084</v>
+        <v>12.56215366666667</v>
       </c>
       <c r="H37">
-        <v>6.222252</v>
+        <v>37.68646099999999</v>
       </c>
       <c r="I37">
-        <v>0.03177955617990281</v>
+        <v>0.163855795446329</v>
       </c>
       <c r="J37">
-        <v>0.03886979339604969</v>
+        <v>0.2060035272711885</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>12.18648933333333</v>
+        <v>8.898116</v>
       </c>
       <c r="N37">
-        <v>36.559468</v>
+        <v>26.694348</v>
       </c>
       <c r="O37">
-        <v>0.07060708751994335</v>
+        <v>0.06069777927254273</v>
       </c>
       <c r="P37">
-        <v>0.08726456136432641</v>
+        <v>0.0772041414787968</v>
       </c>
       <c r="Q37">
-        <v>25.27580254243733</v>
+        <v>111.7795005358253</v>
       </c>
       <c r="R37">
-        <v>227.482222881936</v>
+        <v>1006.015504822428</v>
       </c>
       <c r="S37">
-        <v>0.002243861904539354</v>
+        <v>0.009945682904528189</v>
       </c>
       <c r="T37">
-        <v>0.003391955471028267</v>
+        <v>0.01590432546457601</v>
       </c>
     </row>
   </sheetData>
